--- a/base/Stillingskoder.xlsx
+++ b/base/Stillingskoder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{CB02EEBA-CE01-4B34-A4EA-32621A228F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE60786-6A6D-482D-92F9-91AB309AC118}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{CB02EEBA-CE01-4B34-A4EA-32621A228F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E62555-A0E7-4A60-9370-F396103D67E9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B1DF0E-244B-4DB6-9811-CB0171746D9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82B1DF0E-244B-4DB6-9811-CB0171746D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Høgskolelærer</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Postdoktor (førstestilling)</t>
+  </si>
+  <si>
+    <t>førstestilling</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,14 +158,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}" name="Table1" displayName="Table1" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
     <sortCondition ref="B1:B21"/>
   </sortState>
-  <tableColumns count="2">
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CF3918E7-10D0-42C9-9468-A961172CA098}" name="stillingskode"/>
     <tableColumn id="2" xr3:uid="{824867E9-E84E-403A-A1FE-091D657EEA8D}" name="stillingstittel"/>
+    <tableColumn id="3" xr3:uid="{4B1F5157-09AD-43D9-8A03-D88F6304EDBF}" name="førstestilling" dataDxfId="0">
+      <calculatedColumnFormula>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,200 +471,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CB8898-B8EC-46BF-AF62-EF25C1DF3B9E}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1010</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1532</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1108</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1109</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1110</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1183</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1111</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1011</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8028</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1198</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1008</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1007</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1013</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1404</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8013</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9301</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1483</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1009</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8029</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1017</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1352</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
+      </c>
+      <c r="C23" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/base/Stillingskoder.xlsx
+++ b/base/Stillingskoder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{CB02EEBA-CE01-4B34-A4EA-32621A228F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E62555-A0E7-4A60-9370-F396103D67E9}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{CB02EEBA-CE01-4B34-A4EA-32621A228F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C720017-3258-49E3-82D8-61C888754EF5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82B1DF0E-244B-4DB6-9811-CB0171746D9A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{82B1DF0E-244B-4DB6-9811-CB0171746D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Høgskolelærer</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>førstestilling</t>
+  </si>
+  <si>
+    <t>UN1_med_postdoktor</t>
   </si>
 </sst>
 </file>
@@ -158,17 +161,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0">
-  <autoFilter ref="A1:C23" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B1:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}" name="Table1" displayName="Table1" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{A7546C9D-6CD0-416A-B778-61D28625C0F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
+    <sortCondition ref="A1:A23"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CF3918E7-10D0-42C9-9468-A961172CA098}" name="stillingskode"/>
     <tableColumn id="2" xr3:uid="{824867E9-E84E-403A-A1FE-091D657EEA8D}" name="stillingstittel"/>
     <tableColumn id="3" xr3:uid="{4B1F5157-09AD-43D9-8A03-D88F6304EDBF}" name="førstestilling" dataDxfId="0">
       <calculatedColumnFormula>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{FE98284D-5E38-4E62-8836-6511BB5B7588}" name="UN1_med_postdoktor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CB8898-B8EC-46BF-AF62-EF25C1DF3B9E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +486,10 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -494,268 +499,337 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1008</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1009</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C5" t="b">
         <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1013</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1483</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1532</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="b">
+      <c r="C19" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8013</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8028</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="b">
+        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8029</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="b">
         <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1011</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8028</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1198</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1012</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1008</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1007</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1013</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1404</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8013</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9301</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1483</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1009</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>8029</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1017</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="b">
-        <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1352</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
       <c r="C23" t="b">
         <f>ISNUMBER(SEARCH("førstestilling",Table1[[#This Row],[stillingstittel]]))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
         <v>1</v>
       </c>
     </row>
